--- a/LI Creators.xlsx
+++ b/LI Creators.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianwanser/Desktop/Playing with Data/Tracking LI Content Creators/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianwanser/Desktop/Playing with Data/Tracking LI Content Creators/LI-Creator-Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE712A83-5D51-3C4D-9DC2-04B4C2C04D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4058094-3F91-F74B-A1DE-03043CD142D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13920" yWindow="500" windowWidth="19680" windowHeight="18880" xr2:uid="{12A25CB5-206C-B44E-9102-A1F2726AF938}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Creator URL</t>
   </si>
@@ -45,6 +45,111 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/meganlieu/</t>
+  </si>
+  <si>
+    <t>Creator Name</t>
+  </si>
+  <si>
+    <t>Megan Lieu</t>
+  </si>
+  <si>
+    <t>Kelly Adams</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kellyjianadams/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mblasa/</t>
+  </si>
+  <si>
+    <t>Matthew Blasa</t>
+  </si>
+  <si>
+    <t>Jess Ramos, MSBA</t>
+  </si>
+  <si>
+    <t>Dylan Anderson</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dylansjanderson/</t>
+  </si>
+  <si>
+    <t>Meredith Wang</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/m3redithw/</t>
+  </si>
+  <si>
+    <t>Lai Seipel</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/laiseipel/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carly 🎰 Taylor </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/carly-taylor0017/</t>
+  </si>
+  <si>
+    <t>Avery Smith</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/averyjsmith/</t>
+  </si>
+  <si>
+    <t>Kedeisha Bryan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kedeishabryan/</t>
+  </si>
+  <si>
+    <t>Ali A. Faruqi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ali-a-faruqi-616a88b2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David M Vermillion </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/davidmvermillion/</t>
+  </si>
+  <si>
+    <t>Eric Sims</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ericsims2/</t>
+  </si>
+  <si>
+    <t>Stephen Tran</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/stephentran96/</t>
+  </si>
+  <si>
+    <t>Madison Schott</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/schottmadison/</t>
+  </si>
+  <si>
+    <t>Akmel Syed</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/akmel-syed/</t>
+  </si>
+  <si>
+    <t>🎯 Mark Freeman II</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mafreeman2/</t>
+  </si>
+  <si>
+    <t>Danny Vilchez</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vilchezdanny/</t>
   </si>
 </sst>
 </file>
@@ -396,33 +501,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E8A2BE-4A06-C842-B254-76348A37C924}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{918C2C52-248A-E548-B021-B636F6E23D02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>